--- a/pred_ohlcv/54_21/2019-10-27 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BSV ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-42.58584066000013</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-50.37354066000014</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>21.17065933999986</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>17.39325933999986</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>102.2434593399999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>112.0182418899999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>194.8379418899999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>186.2305418899998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>183.5923418899998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>124.6072418899998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>156.1134418899998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>151.5102418899998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>60.70894188999981</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>63.65434188999981</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>49.7580418899998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>276.0033418899998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>276.4406418899998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>318.5434418899998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>302.9282418899998</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>317.9719418899998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>347.0261418899997</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>345.1511418899997</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>281.6314418899997</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>270.6993418899997</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>217.6685418899997</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>219.5212418899997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>212.2310418899997</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>381.1773418899998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1080.06730007</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1403.71770007</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1389.71400007</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1339.09810007</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1323.37090007</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1319.44660007</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1207.89770007</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1254.29770007</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1252.93820007</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1297.26320007</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1300.397900070001</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1284.494600070001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1308.498100070001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1298.362900070001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1079.709082440001</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1096.990482440001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1076.735282440001</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1066.002482440001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1025.661250880001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1131.26225088</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1131.04225088</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1162.67205088</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1107.70105088</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1135.23585088</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1135.43585088</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1134.09025088</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1140.80805088</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1139.61015088</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1139.83835088</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1139.02245088</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1147.19145088</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1140.95553894</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1129.55244629</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1169.31584629</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1156.21534629</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1166.23424629</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1165.23424629</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1121.44034629</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1142.26594629</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1144.73894629</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-660.0734611300003</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-674.9035611300003</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-501.0393611300003</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-606.1683611300002</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-640.5393611300002</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-638.2809611300002</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-559.8707611300001</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-607.6405611300002</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-602.3228611300002</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-603.7022611300002</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-592.1030611300002</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-432.5934627400002</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-278.6012901100003</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-195.4184920200003</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>163.4413098899997</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>474.1258175799997</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-200.1828621100003</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-52.98516373000027</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-251.6254637300003</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-493.5756676100003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-775.5387451700002</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-653.2496911200002</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-637.8547911200001</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-535.6153808400001</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-606.5749808400001</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-597.8538659200001</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-493.0191002500001</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-416.5985002500001</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-465.9299002500001</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-522.5426002500001</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-622.0589313700001</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-814.2396683200001</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-953.2730383800001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-857.5200062000001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-857.5200062000001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-857.5200062000001</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-871.1957404900002</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1030.61834049</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-989.7905404900002</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1386.156487520001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-1432.628487520001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1420.328787520001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1323.273752080001</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1325.985952080001</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1251.292552080001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1230.756352080001</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1053.711852080001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1223.989089690001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1273.640789690001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1268.640789690001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1285.568689690001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1349.450389690001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1517.731289690001</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1587.558589690001</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1749.041489690001</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3329.84052048</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3331.96922048</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-3305.22682048</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-3256.74092048</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-3250.50262048</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-3265.54982746</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-3227.84502746</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-3212.69942746</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-3211.71282746</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-3185.41902746</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-3178.35612746</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-3178.45682746</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-3116.52172746</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-3194.87352746</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-3225.78522746</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-3225.406927460001</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-3195.735027460001</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-3195.743627460001</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3202.910927460001</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3418.317327460001</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3418.248527460001</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2966.952327460002</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2928.581027460002</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2852.864727460002</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2747.408827460002</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-2599.924527460002</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2513.291927460002</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2380.979627460002</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2208.491627460002</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2253.099527460002</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2294.727627460002</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2256.576327460002</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2278.052027460002</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2441.005527460002</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-2428.444427460002</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2386.049727460002</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-2580.743527460002</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2517.896827460002</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2527.896827460002</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2548.830227460002</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2557.069027460002</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2534.166227460003</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2483.927727460003</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2513.143427460003</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2511.724127460003</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2511.034127460003</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-2548.234127460003</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2547.004327460003</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-2562.668027460003</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2638.044027460002</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-2639.601827460002</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-2652.823127460003</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2807.996927460003</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-2690.936237870003</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2710.104266090003</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-2710.774089540002</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-2303.975499640002</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2177.727699640002</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-2313.813199640002</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2391.834499640002</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-2433.786099640002</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-2418.727199640002</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-2354.800099640002</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-2362.825599640003</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2347.888299640003</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-2335.358299640002</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2307.078899640002</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-2290.797010420003</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-2376.333510420003</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-2314.822564270003</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-3019.904054230002</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2969.013954230002</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2933.866954230002</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2965.466954230002</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2955.715354230002</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2927.745947140002</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2933.833347140002</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2561.488955010002</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2558.116955010003</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BSV ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-42.58584066000013</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-50.37354066000014</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>18.97615933999986</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>21.17065933999986</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>17.39325933999986</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>102.2434593399999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>112.0182418899999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>194.8379418899999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>252.3597418899998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>186.2305418899998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>183.5923418899998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>124.6072418899998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>156.1134418899998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>153.6459418899998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>151.5102418899998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>60.70894188999981</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>63.65434188999981</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>49.7580418899998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>276.0033418899998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>276.4406418899998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>318.5434418899998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>302.9282418899998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>317.9719418899998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>327.6898418899997</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>347.0261418899997</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>345.1511418899997</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>281.6314418899997</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>270.6993418899997</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>273.0974418899997</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>217.6685418899997</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>219.5212418899997</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>212.2310418899997</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>381.1773418899998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1403.71770007</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1391.71400007</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1389.71400007</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1339.09810007</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1323.37090007</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1319.44660007</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1207.89770007</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1254.29770007</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1252.93820007</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1297.26320007</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1300.397900070001</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1284.494600070001</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1308.498100070001</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1298.362900070001</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1079.709082440001</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1096.990482440001</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1091.822582440001</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1091.812882440001</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1076.735282440001</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1066.002482440001</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1025.661250880001</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1131.26225088</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1131.04225088</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1162.67205088</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1107.70105088</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1135.23585088</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1135.43585088</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1134.09025088</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1140.80805088</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1139.61015088</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1139.83835088</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1139.02245088</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1147.19145088</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1140.95553894</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1129.18314629</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1129.55244629</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1169.31584629</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1156.21534629</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1166.23424629</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1165.23424629</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1184.67694629</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1131.29154629</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1121.44034629</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1142.26594629</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1144.73894629</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1145.01294629</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1152.74744629</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-660.0734611300003</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-674.9035611300003</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-661.0595611300002</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-501.0393611300003</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-606.1683611300002</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-640.5393611300002</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-638.2809611300002</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-559.8707611300001</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-607.6405611300002</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-597.0730611300002</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-594.4057611300002</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-602.3228611300002</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-603.7022611300002</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-592.1030611300002</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-470.7657611300002</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-432.5934627400002</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-278.6012901100003</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-195.4184920200003</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>163.4413098899997</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>474.1258175799997</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-326.7023621100003</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-52.98516373000027</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-350.9041637300003</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-435.4223637300003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-493.5756676100003</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-510.1015676100002</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-584.2347372900002</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-525.8420372900002</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-775.5387451700002</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-737.9940175500002</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-691.3452911200002</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-597.8538659200001</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-493.0191002500001</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-416.5985002500001</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-465.9299002500001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-520.02380025</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-522.5426002500001</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-622.0589313700001</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1386.156487520001</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1401.439087520001</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-1432.628487520001</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1420.328787520001</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1323.273752080001</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1319.985952080001</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1325.985952080001</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1252.916352080001</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1251.292552080001</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1230.756352080001</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1053.711852080001</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-1203.358452080001</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1266.972089690001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1223.989089690001</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1245.562989690001</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1273.640789690001</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1268.640789690001</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1285.568689690001</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1349.450389690001</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-1457.518989690001</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1517.731289690001</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1587.558589690001</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1749.041489690001</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-3334.01868969</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3326.58122048</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-3325.69102048</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-3325.69102048</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-3237.74342048</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-3263.22572048</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-3374.85482048</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-3342.79712048</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3329.84052048</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3331.96922048</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-3305.22682048</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-3305.22682048</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-3256.74092048</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-3250.50262048</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-3308.52672746</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-3265.56372746</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3265.58442746</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-3265.54982746</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-3227.84502746</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-3212.69942746</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-3212.73192746</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-3211.71282746</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-3224.74252746</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-3185.41902746</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-3178.35612746</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-3178.45682746</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-3176.74512746</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-3116.52172746</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-3154.94632746</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-3194.87352746</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-3225.78522746</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-3225.406927460001</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-3195.735027460001</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-3195.743627460001</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3195.737727460001</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3202.910927460001</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-3258.101227460001</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3418.317327460001</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3418.248527460001</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2966.952327460002</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2928.581027460002</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2852.864727460002</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2747.408827460002</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2548.517227460002</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-2599.924527460002</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2513.291927460002</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2380.979627460002</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2208.491627460002</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2253.099527460002</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2294.727627460002</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2256.576327460002</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2278.052027460002</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2441.005527460002</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-2428.444427460002</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2386.049727460002</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-2580.743527460002</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2502.284727460003</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2505.888527460002</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2517.896827460002</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2527.896827460002</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2548.830227460002</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2557.069027460002</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2534.166227460003</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2483.807727460003</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2483.927727460003</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2513.143427460003</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2511.793427460003</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2511.724127460003</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2511.034127460003</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-2548.234127460003</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2547.004327460003</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2562.658727460002</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-2562.668027460003</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-2638.404027460002</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2638.044027460002</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-2639.601827460002</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-2652.823127460003</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-2303.975499640002</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2177.727699640002</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-2313.813199640002</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2391.834499640002</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-2433.786099640002</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-2418.727199640002</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-2354.800099640002</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-2362.825599640003</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2347.888299640003</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-2335.358299640002</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2307.078899640002</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-2290.797010420003</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-2376.333510420003</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-2314.822564270003</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2345.617564270003</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-3019.904054230002</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2969.013954230002</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2933.866954230002</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2965.466954230002</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2955.715354230002</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2927.745947140002</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2933.833347140002</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2561.488955010002</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2558.116955010003</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
